--- a/follows/GST_follow1025.xlsx
+++ b/follows/GST_follow1025.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -85,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +136,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -250,10 +283,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +326,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,12 +341,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,47 +644,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="13" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="10">
         <v>43039</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9">
+      <c r="C1" s="11"/>
+      <c r="D1" s="10">
         <v>42992</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10">
         <v>42998</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9">
+      <c r="G1" s="11"/>
+      <c r="H1" s="10">
         <v>43000</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9">
+      <c r="I1" s="11"/>
+      <c r="J1" s="10">
         <v>43008</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="9">
+      <c r="K1" s="11"/>
+      <c r="L1" s="10">
         <v>43033</v>
       </c>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,12 +722,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>28</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
@@ -667,12 +739,12 @@
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>29</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
@@ -684,12 +756,12 @@
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>30</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
@@ -701,12 +773,12 @@
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>31</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
@@ -718,12 +790,12 @@
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>32</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
@@ -735,12 +807,12 @@
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>33</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
@@ -752,12 +824,12 @@
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>34</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -769,12 +841,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>35</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -786,12 +858,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>36</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
@@ -803,12 +875,12 @@
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>37</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
@@ -820,12 +892,12 @@
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>38</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
@@ -837,12 +909,12 @@
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>39</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
@@ -854,12 +926,12 @@
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>40</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
@@ -871,12 +943,12 @@
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
@@ -888,7 +960,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>42</v>
       </c>
@@ -905,7 +977,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43</v>
       </c>
@@ -922,7 +994,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44</v>
       </c>
@@ -939,7 +1011,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45</v>
       </c>
@@ -956,7 +1028,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>46</v>
       </c>
@@ -973,7 +1045,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>47</v>
       </c>
@@ -990,7 +1062,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>48</v>
       </c>
@@ -1007,7 +1079,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>49</v>
       </c>
@@ -1024,7 +1096,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>50</v>
       </c>
@@ -1041,7 +1113,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>51</v>
       </c>
@@ -1058,7 +1130,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>52</v>
       </c>
@@ -1075,7 +1147,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>53</v>
       </c>
@@ -1092,7 +1164,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>54</v>
       </c>
@@ -1109,7 +1181,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1124,7 +1196,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>

--- a/follows/GST_follow1025.xlsx
+++ b/follows/GST_follow1025.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Projects/BBD_Projects/BBD_Training/Demo01_GST/follows/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
@@ -15,15 +10,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -96,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +148,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -304,7 +309,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +334,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,9 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -645,46 +653,46 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="13" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="12">
         <v>43039</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10">
-        <v>42992</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10">
+      <c r="C1" s="13"/>
+      <c r="D1" s="12">
+        <v>43042</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="12">
         <v>42998</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10">
+      <c r="G1" s="13"/>
+      <c r="H1" s="12">
         <v>43000</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="10">
+      <c r="I1" s="13"/>
+      <c r="J1" s="12">
         <v>43008</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10">
+      <c r="K1" s="13"/>
+      <c r="L1" s="12">
         <v>43033</v>
       </c>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>28</v>
       </c>
@@ -739,7 +747,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>29</v>
       </c>
@@ -756,7 +764,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -773,7 +781,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -790,7 +798,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>32</v>
       </c>
@@ -807,7 +815,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>33</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>34</v>
       </c>
@@ -841,7 +849,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>35</v>
       </c>
@@ -858,7 +866,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>36</v>
       </c>
@@ -875,13 +883,13 @@
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>37</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -892,7 +900,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>38</v>
       </c>
@@ -909,13 +917,13 @@
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>39</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -926,7 +934,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>40</v>
       </c>
@@ -943,13 +951,13 @@
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>41</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
@@ -960,7 +968,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>42</v>
       </c>
@@ -977,7 +985,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>43</v>
       </c>
@@ -994,7 +1002,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>44</v>
       </c>
@@ -1011,7 +1019,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>45</v>
       </c>
@@ -1028,7 +1036,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>46</v>
       </c>
@@ -1045,7 +1053,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>47</v>
       </c>
@@ -1062,7 +1070,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>48</v>
       </c>
@@ -1079,7 +1087,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>49</v>
       </c>
@@ -1096,7 +1104,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>50</v>
       </c>
@@ -1113,7 +1121,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>51</v>
       </c>
@@ -1130,7 +1138,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>52</v>
       </c>
@@ -1147,7 +1155,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>53</v>
       </c>
@@ -1164,7 +1172,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>54</v>
       </c>
@@ -1181,7 +1189,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1196,7 +1204,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="20" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
